--- a/data/azoreductase_info.xlsx
+++ b/data/azoreductase_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dome/Desktop/UMD/hall-pop-lab/azoreductases/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dome/UMD/hall-pop-lab/Azoreductases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8527E1-F89B-C341-A55D-409D0E0AC833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFA75C-CD5B-1540-BD14-10F11646FCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1020" windowWidth="33600" windowHeight="20500" xr2:uid="{4793EDFD-95DC-2E4D-AFEF-6AEC473D78F8}"/>
+    <workbookView xWindow="3720" yWindow="1100" windowWidth="33600" windowHeight="20500" xr2:uid="{4793EDFD-95DC-2E4D-AFEF-6AEC473D78F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Probable NAD(P)H dehydrogenase</t>
   </si>
   <si>
-    <t>Escherischia coli</t>
-  </si>
-  <si>
     <t>mdaB</t>
   </si>
   <si>
@@ -402,12 +399,6 @@
     <t>Nakanishi 2001, Liu 2009</t>
   </si>
   <si>
-    <t>Escherischia coli (K-12)</t>
-  </si>
-  <si>
-    <t>Psudonomas aeruginosa (PAO1)</t>
-  </si>
-  <si>
     <t>Mendes 2011, Goncalves 2013</t>
   </si>
   <si>
@@ -529,6 +520,15 @@
   </si>
   <si>
     <t>Lederbergia lentus BI377 (Bacillus lentus)</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa (PAO1)</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Escherichia coli (K-12)</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,25 +970,25 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>1</v>
@@ -996,306 +996,306 @@
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H4"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="7">
         <v>178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
         <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H9"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
         <v>198</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
         <v>208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>3</v>
@@ -1305,279 +1305,279 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
         <v>188</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
         <v>201</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7">
         <v>212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>208</v>
       </c>
       <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
         <v>182</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D26" s="7">
         <v>200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="7">
         <v>203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1586,299 +1586,299 @@
         <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30">
         <v>230</v>
       </c>
       <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
         <v>199</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="7">
         <v>213</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="7">
         <v>212</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D35">
         <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>178</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7">
         <v>214</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>198</v>
       </c>
       <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
         <v>36</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
       </c>
       <c r="D41">
         <v>188</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
       </c>
       <c r="D42">
         <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
